--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Labelling_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Labelling_Validation_UR.xlsx
@@ -8,7 +8,6 @@
   <x:sheets>
     <x:sheet name="TOC" sheetId="2" r:id="rId2"/>
     <x:sheet name="LEGALLABELLING" sheetId="3" r:id="rId3"/>
-    <x:sheet name="SEEWHATSNEW" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>LegalLabelling</x:t>
   </x:si>
@@ -59,6 +58,9 @@
     <x:t>the information includes the manufacturer details</x:t>
   </x:si>
   <x:si>
+    <x:t>the information includes the CE representative details</x:t>
+  </x:si>
+  <x:si>
     <x:t>the information includes the date of manufacture</x:t>
   </x:si>
   <x:si>
@@ -72,65 +74,6 @@
   </x:si>
   <x:si>
     <x:t>the information includes the warnings and precautions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR, @UR027, @DesktopOnly, @Labelling</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As a user
-I want to be made aware of new features 
-So that I know what's changed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeNewFeaturesOnStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Given </x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have not dismissed the news for the version installed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I start AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features are displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StopSeeingNewFeatures</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I dismiss/request the new features are no longer displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I restart AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AssistDent restarts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features are not dismissed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeNewFeaturesAfterStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have started AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I access the new features</x:t>
   </x:si>
   <x:si>
     <x:t>user</x:t>
@@ -536,7 +479,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B3"/>
+  <x:dimension ref="A1:B2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,7 +487,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -552,15 +495,9 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="B3" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="B2" location="'LEGALLABELLING'!A1" display="LegalLabelling"/>
-    <x:hyperlink ref="B3" location="'SEEWHATSNEW'!A1" display="SeeWhatsNew"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -575,7 +512,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D16"/>
+  <x:dimension ref="A1:D17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -685,188 +622,12 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:D28"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="B24" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4"/>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
